--- a/upload/excel/2506_학진초_발주서_이가에프엔비_업로드용.xlsx
+++ b/upload/excel/2506_학진초_발주서_이가에프엔비_업로드용.xlsx
@@ -528,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
@@ -542,6 +542,7 @@
     <col width="6.796875" customWidth="1" style="10" min="7" max="27"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" ht="19.2" customHeight="1" s="10">
       <c r="A2" s="4" t="inlineStr">
         <is>
@@ -697,6 +698,11 @@
       <c r="AA5" s="1" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -775,6 +781,9 @@
         <is>
           <t>133</t>
         </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>17000</v>
       </c>
     </row>
     <row r="7" ht="48.6" customHeight="1" s="10">
@@ -837,6 +846,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AB7" t="n">
+        <v>11776</v>
+      </c>
     </row>
     <row r="8" ht="48.6" customHeight="1" s="10">
       <c r="A8" s="3" t="inlineStr">
@@ -898,6 +910,9 @@
           <t>42</t>
         </is>
       </c>
+      <c r="AB8" t="n">
+        <v>23900</v>
+      </c>
     </row>
     <row r="9" ht="34.2" customHeight="1" s="10">
       <c r="A9" s="3" t="inlineStr"/>
